--- a/html/resources/1condition/trialsB2.xlsx
+++ b/html/resources/1condition/trialsB2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janet/Desktop/Sinai_Projects/Code/fish-task-6B20T/1condition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janet/Desktop/Sinai_Projects/Code/fish-task-6B20T/html/resources/1condition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF13ADBD-6EA4-324B-949A-F7F56E4545C2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8D079D-B3DE-AD44-94D7-CB317AC762B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="3600" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>stimuli/bead_b.PNG</t>
   </si>
   <si>
-    <t>stimuli/blank.JPG</t>
-  </si>
-  <si>
     <t>stimuli/bead_g.PNG</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>up</t>
+  </si>
+  <si>
+    <t>stimuli/blank.jpg</t>
   </si>
 </sst>
 </file>
@@ -444,16 +444,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -477,13 +477,13 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -496,7 +496,7 @@
         <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -513,10 +513,10 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -562,7 +562,7 @@
         <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -570,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -595,7 +595,7 @@
         <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -606,7 +606,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -639,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -693,7 +693,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -705,7 +705,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -753,28 +753,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
         <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -782,28 +782,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
         <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -814,25 +814,25 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
         <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -840,28 +840,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
         <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -869,28 +869,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
         <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -898,28 +898,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
         <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -927,28 +927,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
         <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -956,28 +956,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
         <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -985,28 +985,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
         <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1014,28 +1014,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
         <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
